--- a/src/test/resources/bulk/bad_int_value.xlsx
+++ b/src/test/resources/bulk/bad_int_value.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="100" windowWidth="22040" windowHeight="12340"/>
@@ -38,9 +38,6 @@
     <t>isbn</t>
   </si>
   <si>
-    <t>numberOfPages</t>
-  </si>
-  <si>
     <t>test1.pdf</t>
   </si>
   <si>
@@ -86,7 +83,10 @@
     <t>THESIS</t>
   </si>
   <si>
-    <t>abcd</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>numberOfVolumes</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -450,64 +450,64 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
         <v>1234</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/bulk/bad_int_value.xlsx
+++ b/src/test/resources/bulk/bad_int_value.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="100" windowWidth="22040" windowHeight="12340"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>filename</t>
   </si>
@@ -87,16 +87,35 @@
   </si>
   <si>
     <t>numberOfVolumes</t>
+  </si>
+  <si>
+    <t>Date Created (Year)*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,13 +138,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,93 +448,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
